--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picol\Google Drive\Projects\OpenClassRooms\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picol\Google Drive\Projects\OpenClassRooms\P4_CHIRIGUT_Andrei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{493315F8-4EE1-4BAC-B90A-01743C261976}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D22E8-0344-455D-B21D-47CD670587FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
   <si>
     <t>Catégorie</t>
   </si>
@@ -244,6 +244,16 @@
   </si>
   <si>
     <t>Best Practices</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The best practice is to always use a CDN and not use files from your folder because is heavyer and users may have to pay for more cellular data 
+</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-optimized-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>SEO</t>
   </si>
 </sst>
 </file>
@@ -337,7 +347,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -374,6 +384,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -593,8 +606,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -650,7 +663,7 @@
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -819,7 +832,7 @@
         <v>54</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="E10" s="8" t="s">
         <v>42</v>
@@ -862,7 +875,7 @@
       <c r="E12" s="8"/>
       <c r="F12" s="4"/>
     </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="75.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
         <v>62</v>
       </c>
@@ -873,6 +886,9 @@
         <v>38</v>
       </c>
       <c r="E13" s="9"/>
+      <c r="F13" s="15" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:26" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
@@ -1895,6 +1911,7 @@
     <hyperlink ref="F9" r:id="rId8" xr:uid="{ECA40C25-4415-4774-ABD7-51379CC9EE15}"/>
     <hyperlink ref="F11" r:id="rId9" xr:uid="{64165A1C-34A6-4C1A-A1E2-B73684D2D221}"/>
     <hyperlink ref="F10" r:id="rId10" xr:uid="{3E4B93B1-2F8C-4C23-B173-0E0A748C1462}"/>
+    <hyperlink ref="F13" r:id="rId11" xr:uid="{26A42381-F102-47D5-9673-96E4ECE8C58A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>

--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\picol\Google Drive\Projects\OpenClassRooms\P4_CHIRIGUT_Andrei\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F7D22E8-0344-455D-B21D-47CD670587FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC60A459-D851-46D7-B897-6BC78F081318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="330" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="75">
   <si>
     <t>Catégorie</t>
   </si>
@@ -163,20 +163,7 @@
 Add Title - not done</t>
   </si>
   <si>
-    <t>Redo mobile version</t>
-  </si>
-  <si>
-    <t>changed image size for mobile</t>
-  </si>
-  <si>
-    <t>change to CDN</t>
-  </si>
-  <si>
     <t>Delete hidden text</t>
-  </si>
-  <si>
-    <t>done
-10</t>
   </si>
   <si>
     <t>Footer links are broken</t>
@@ -219,9 +206,6 @@
     <t>Hiding text or links in your content to manipulate Google's search rankings can be seen as deceptive and is a violation of Google's Webmaster Guidelines</t>
   </si>
   <si>
-    <t>https://www.seoblog.com/hide-text-seo-friendly/</t>
-  </si>
-  <si>
     <t>https://www.cloudflare.com/en-gb/learning/cdn/what-is-a-cdn/</t>
   </si>
   <si>
@@ -254,6 +238,42 @@
   </si>
   <si>
     <t>SEO</t>
+  </si>
+  <si>
+    <t>https://web.dev/uses-webp-images/?utm_source=lighthouse&amp;utm_medium=devtools</t>
+  </si>
+  <si>
+    <t>Check if your images are in the right format</t>
+  </si>
+  <si>
+    <t>Change images to formats like WebP and AVIF</t>
+  </si>
+  <si>
+    <t>Check the size of your images</t>
+  </si>
+  <si>
+    <t>If the images size is too big convert the image or compress it</t>
+  </si>
+  <si>
+    <t>https://moz.com/learn/seo/mobile-optimization</t>
+  </si>
+  <si>
+    <t>Mobile friendly optimisation</t>
+  </si>
+  <si>
+    <t>The website has some problems with the mobile friendly version</t>
+  </si>
+  <si>
+    <t>Inspect your website to check if it is mobile friendly with the inspector or with websites like: https://responsivedesignchecker.com/</t>
+  </si>
+  <si>
+    <t>Change links and script to CDN if possible</t>
+  </si>
+  <si>
+    <t>Make necessary changes to your website and make it mobile friendly</t>
+  </si>
+  <si>
+    <t>https://developers.google.com/search/docs/advanced/guidelines/hidden-text-links</t>
   </si>
 </sst>
 </file>
@@ -606,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -663,7 +683,7 @@
     </row>
     <row r="2" spans="1:26" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>6</v>
@@ -683,7 +703,7 @@
     </row>
     <row r="3" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>20</v>
@@ -703,7 +723,7 @@
     </row>
     <row r="4" spans="1:26" s="10" customFormat="1" ht="63" x14ac:dyDescent="0.2">
       <c r="A4" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>10</v>
@@ -723,7 +743,7 @@
     </row>
     <row r="5" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A5" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>15</v>
@@ -743,7 +763,7 @@
     </row>
     <row r="6" spans="1:26" s="10" customFormat="1" ht="120" x14ac:dyDescent="0.2">
       <c r="A6" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>25</v>
@@ -763,7 +783,7 @@
     </row>
     <row r="7" spans="1:26" s="10" customFormat="1" ht="94.5" x14ac:dyDescent="0.2">
       <c r="A7" s="7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>30</v>
@@ -783,87 +803,87 @@
     </row>
     <row r="8" spans="1:26" s="10" customFormat="1" ht="90" x14ac:dyDescent="0.2">
       <c r="A8" s="7" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" s="13" t="s">
         <v>45</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="F8" s="13" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:26" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A9" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C9" s="14" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E9" s="8" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F9" s="13" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="10" customFormat="1" ht="105" x14ac:dyDescent="0.2">
       <c r="A10" s="7" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C10" s="12" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="E10" s="8" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="F10" s="13" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" spans="1:26" s="10" customFormat="1" ht="60" x14ac:dyDescent="0.2">
       <c r="A11" s="7" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C11" s="14" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="E11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="F11" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
         <v>57</v>
-      </c>
-    </row>
-    <row r="12" spans="1:26" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>35</v>
@@ -871,13 +891,19 @@
       <c r="C12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="D12" s="7"/>
-      <c r="E12" s="8"/>
-      <c r="F12" s="4"/>
+      <c r="D12" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="13" t="s">
+        <v>63</v>
+      </c>
     </row>
-    <row r="13" spans="1:26" s="10" customFormat="1" ht="75.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" s="10" customFormat="1" ht="75" x14ac:dyDescent="0.2">
       <c r="A13" s="7" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>37</v>
@@ -885,27 +911,39 @@
       <c r="C13" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="E13" s="9"/>
+      <c r="D13" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>67</v>
+      </c>
       <c r="F13" s="15" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
     </row>
-    <row r="14" spans="1:26" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
       <c r="A14" s="11" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>69</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" s="13" t="s">
+        <v>68</v>
+      </c>
     </row>
-    <row r="15" spans="1:26" s="10" customFormat="1" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>41</v>
-      </c>
+    <row r="15" spans="1:26" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12"/>
+      <c r="B15" s="5"/>
     </row>
     <row r="16" spans="1:26" s="10" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="7"/>
@@ -1909,9 +1947,11 @@
     <hyperlink ref="F7" r:id="rId6" xr:uid="{4B594198-BF5B-4E52-924F-40C708605EE3}"/>
     <hyperlink ref="F8" r:id="rId7" xr:uid="{856D2D74-E911-41C7-90FF-6470B15934B8}"/>
     <hyperlink ref="F9" r:id="rId8" xr:uid="{ECA40C25-4415-4774-ABD7-51379CC9EE15}"/>
-    <hyperlink ref="F11" r:id="rId9" xr:uid="{64165A1C-34A6-4C1A-A1E2-B73684D2D221}"/>
-    <hyperlink ref="F10" r:id="rId10" xr:uid="{3E4B93B1-2F8C-4C23-B173-0E0A748C1462}"/>
-    <hyperlink ref="F13" r:id="rId11" xr:uid="{26A42381-F102-47D5-9673-96E4ECE8C58A}"/>
+    <hyperlink ref="F10" r:id="rId9" xr:uid="{3E4B93B1-2F8C-4C23-B173-0E0A748C1462}"/>
+    <hyperlink ref="F13" r:id="rId10" xr:uid="{26A42381-F102-47D5-9673-96E4ECE8C58A}"/>
+    <hyperlink ref="F12" r:id="rId11" xr:uid="{17246378-ACF6-4693-8B47-B5D464E9799A}"/>
+    <hyperlink ref="F14" r:id="rId12" xr:uid="{011C43DD-152F-4C60-BD50-6E0F2E54B157}"/>
+    <hyperlink ref="F11" r:id="rId13" xr:uid="{0E2648A3-0811-4C05-8B98-1EA4CA496953}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
